--- a/src/main/webapp/root/regTemps.xlsx
+++ b/src/main/webapp/root/regTemps.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -132,15 +132,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${reg.jiaquanc}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${reg.regTime}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${reg.regSource}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reg.jiaquanjc}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +525,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
